--- a/Rev1/Release/BOM/Bill of Materials-DAQ_1.xlsx
+++ b/Rev1/Release/BOM/Bill of Materials-DAQ_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>Description</t>
   </si>
@@ -51,6 +51,15 @@
     <t>C0603C104M4RACTU</t>
   </si>
   <si>
+    <t>Cap Ceramic 0.18uF 16V X7R 10% SMD 0603 125C Paper T/R</t>
+  </si>
+  <si>
+    <t>C8, C9</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R7BB184</t>
+  </si>
+  <si>
     <t>LED GREEN CLEAR 0603 SMD</t>
   </si>
   <si>
@@ -168,6 +177,15 @@
     <t>RC0603FR-072K2L</t>
   </si>
   <si>
+    <t>RES SMD 1K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>R23, R24</t>
+  </si>
+  <si>
+    <t>CRCW06031K00FKEA</t>
+  </si>
+  <si>
     <t>IC REG LIN 3.3V 800MA SOT223-3</t>
   </si>
   <si>
@@ -177,31 +195,40 @@
     <t>TC2117-3.3VDBTR</t>
   </si>
   <si>
-    <t>8-input multiplexer</t>
+    <t>Multiplexer 1-Element CMOS 8-IN 16-Pin TSSOP T/R</t>
   </si>
   <si>
     <t>U2</t>
   </si>
   <si>
-    <t>Bidirectional voltage level translators operational from 1.0 V
-to 3.6 V (Vref(A)) and 1.8 V to 5.5 V (Vref(B)),</t>
+    <t>74HCT151PW,118</t>
+  </si>
+  <si>
+    <t>NVT2010PW/TSSOP24/REEL13//</t>
   </si>
   <si>
     <t>U3</t>
   </si>
   <si>
-    <t>Dual 4-input multiplexer</t>
+    <t>NVT2010PW,118</t>
+  </si>
+  <si>
+    <t>IC MULTIPLEXER 4-INPUT 16TSSOP</t>
   </si>
   <si>
     <t>U4</t>
   </si>
   <si>
-    <t>ADS111x Ultra-Small, Low-Power, I
-2C-Compatible, 860-SPS, 16-Bit ADCs
-With Internal Reference, Oscillator, and Programmable Comparator</t>
+    <t>74HCT153PW,118</t>
+  </si>
+  <si>
+    <t>TEXAS INSTRUMENTS - ADS1115IDGSR . - Analogue to Digital Converter, 16 bit, 860 SPS, Differential, Single Ended, I2C, Single, 2 V</t>
   </si>
   <si>
     <t>U5</t>
+  </si>
+  <si>
+    <t>ADS1115IDGSR</t>
   </si>
 </sst>
 </file>
@@ -434,93 +461,81 @@
   <cellXfs>
     <xf xxid="15" numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
     <xf xxid="21" numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf xxid="22" numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf xxid="22" numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyBorder="1"/>
+    <xf xxid="23" numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyBorder="1"/>
+    <xf xxid="24" numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyBorder="1"/>
+    <xf xxid="25" numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyBorder="1"/>
+    <xf xxid="26" numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyBorder="1"/>
+    <xf xxid="27" numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyBorder="1"/>
+    <xf xxid="28" numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyBorder="1"/>
+    <xf xxid="29" numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyBorder="1"/>
+    <xf xxid="30" numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyBorder="1"/>
+    <xf xxid="31" numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyBorder="1"/>
+    <xf xxid="32" numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyBorder="1"/>
+    <xf xxid="33" numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyBorder="1" applyFill="1"/>
+    <xf xxid="34" numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyBorder="1" applyFill="1"/>
+    <xf xxid="35" numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="36" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="37" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1"/>
+    <xf xxid="38" numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="39" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="40" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="41" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyBorder="1"/>
+    <xf xxid="42" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1"/>
+    <xf xxid="43" numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="44" numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="45" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="46" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="47" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="48" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="49" numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyBorder="1" applyFill="1"/>
+    <xf xxid="50" numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyBorder="1" applyFill="1"/>
+    <xf xxid="51" numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xxid="23" numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyBorder="1"/>
-    <xf xxid="24" numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyBorder="1"/>
-    <xf xxid="25" numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyBorder="1"/>
-    <xf xxid="26" numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyBorder="1"/>
-    <xf xxid="27" numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyBorder="1"/>
-    <xf xxid="28" numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyBorder="1"/>
-    <xf xxid="29" numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyBorder="1"/>
-    <xf xxid="30" numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyBorder="1"/>
-    <xf xxid="31" numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyBorder="1"/>
-    <xf xxid="32" numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyBorder="1"/>
-    <xf xxid="33" numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyBorder="1"/>
-    <xf xxid="34" numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf xxid="35" numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf xxid="36" numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="37" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="38" numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
+    <xf xxid="52" numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xxid="39" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
+    <xf xxid="53" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xxid="40" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1"/>
-    <xf xxid="41" numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="42" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="43" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
+    <xf xxid="54" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xxid="44" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="45" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyBorder="1"/>
-    <xf xxid="46" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1"/>
-    <xf xxid="47" numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="48" numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="49" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="50" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="51" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="52" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="53" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
+    <xf xxid="55" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xxid="54" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
+    <xf xxid="56" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xxid="55" numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf xxid="56" numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf xxid="57" numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
+    <xf xxid="57" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xxid="58" numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
+    <xf xxid="58" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xxid="59" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xxid="60" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xxid="61" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xxid="62" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xxid="63" numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
+    <xf xxid="59" numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="64" numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
+    <xf xxid="60" numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="65" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
+    <xf xxid="61" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="66" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
+    <xf xxid="62" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="67" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1">
+    <xf xxid="63" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="68" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
+    <xf xxid="64" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="69" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
+    <xf xxid="65" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="70" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1">
+    <xf xxid="66" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -541,7 +556,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -554,298 +569,334 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="40" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="47">
+      <c r="C2" s="43">
         <v>3</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="42" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="46">
         <v>4</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="45" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="50">
-        <v>1</v>
-      </c>
-      <c r="D4" s="49" t="s">
+      <c r="C4" s="46">
+        <v>2</v>
+      </c>
+      <c r="D4" s="45" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="50">
-        <v>1</v>
-      </c>
-      <c r="D5" s="49" t="s">
+      <c r="C5" s="46">
+        <v>1</v>
+      </c>
+      <c r="D5" s="45" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="50">
-        <v>1</v>
-      </c>
-      <c r="D6" s="49" t="s">
+      <c r="C6" s="46">
+        <v>1</v>
+      </c>
+      <c r="D6" s="45" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="46">
+        <v>1</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="46">
         <v>2</v>
       </c>
-      <c r="D7" s="49" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="50">
-        <v>1</v>
-      </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="45" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="50">
-        <v>1</v>
-      </c>
-      <c r="D9" s="49" t="s">
+      <c r="C9" s="46">
+        <v>1</v>
+      </c>
+      <c r="D9" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="50">
-        <v>1</v>
-      </c>
-      <c r="D10" s="49"/>
+      <c r="C10" s="46">
+        <v>1</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="49" t="s">
+      <c r="A11" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="50">
-        <v>1</v>
-      </c>
-      <c r="D11" s="49" t="s">
+      <c r="B11" s="45" t="s">
         <v>33</v>
       </c>
+      <c r="C11" s="46">
+        <v>1</v>
+      </c>
+      <c r="D11" s="45"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="46">
+        <v>1</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="46">
         <v>12</v>
       </c>
-      <c r="D12" s="49"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="50">
+      <c r="D13" s="45"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="46">
         <v>4</v>
       </c>
-      <c r="D13" s="49"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="50">
+      <c r="D14" s="45"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="46">
         <v>9</v>
       </c>
-      <c r="D14" s="49" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="50">
+      <c r="D15" s="45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="46">
         <v>11</v>
       </c>
-      <c r="D15" s="49" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="50">
-        <v>1</v>
-      </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="45" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="50">
-        <v>1</v>
-      </c>
-      <c r="D17" s="49" t="s">
+      <c r="C17" s="46">
+        <v>1</v>
+      </c>
+      <c r="D17" s="45" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="50">
-        <v>1</v>
-      </c>
-      <c r="D18" s="49" t="s">
+      <c r="C18" s="46">
+        <v>1</v>
+      </c>
+      <c r="D18" s="45" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="50">
-        <v>1</v>
-      </c>
-      <c r="D19" s="49"/>
+      <c r="C19" s="46">
+        <v>2</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="49" t="s">
+      <c r="A20" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="50">
-        <v>1</v>
-      </c>
-      <c r="D20" s="49"/>
+      <c r="B20" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="46">
+        <v>1</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="50">
-        <v>1</v>
-      </c>
-      <c r="D21" s="49"/>
+      <c r="A21" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="46">
+        <v>1</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="50">
-        <v>1</v>
-      </c>
-      <c r="D22" s="49"/>
+      <c r="A22" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="46">
+        <v>1</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="46">
+        <v>1</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="46">
+        <v>1</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
